--- a/Data/g16.2.xlsx
+++ b/Data/g16.2.xlsx
@@ -1,21 +1,53 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wagner Nobrega\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C03A2785-E1E4-4098-8AA9-235EE2CA4FBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="6">
+  <si>
+    <t>Região</t>
+  </si>
+  <si>
+    <t>Ano</t>
+  </si>
+  <si>
+    <t>Valor</t>
+  </si>
+  <si>
+    <t>Brasil</t>
+  </si>
+  <si>
+    <t>Nordeste</t>
+  </si>
+  <si>
+    <t>Sergipe</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -27,6 +59,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -52,24 +90,34 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -107,7 +155,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -141,6 +189,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -175,9 +224,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -350,346 +400,293 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Região</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Ano</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Valor</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>31/12/2004</t>
-        </is>
-      </c>
-      <c r="C2">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2">
+        <v>38352</v>
+      </c>
+      <c r="C2" s="3">
         <v>6.4</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>31/12/2009</t>
-        </is>
-      </c>
-      <c r="C3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2">
+        <v>40178</v>
+      </c>
+      <c r="C3" s="3">
         <v>4.5</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>31/12/2015</t>
-        </is>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>31/12/2016</t>
-        </is>
-      </c>
-      <c r="C5">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>42369</v>
+      </c>
+      <c r="C4" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2">
+        <v>42735</v>
+      </c>
+      <c r="C5" s="3">
         <v>5.7</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>31/12/2017</t>
-        </is>
-      </c>
-      <c r="C6">
-        <v>5.867819840560968</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>31/12/2018</t>
-        </is>
-      </c>
-      <c r="C7">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2">
+        <v>43100</v>
+      </c>
+      <c r="C6" s="3">
+        <v>5.8678198405609683</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="2">
+        <v>43465</v>
+      </c>
+      <c r="C7" s="3">
         <v>5.6</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Brasil</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>31/12/2019</t>
-        </is>
-      </c>
-      <c r="C8">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="2">
+        <v>43830</v>
+      </c>
+      <c r="C8" s="3">
         <v>5.6</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Nordeste</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>31/12/2004</t>
-        </is>
-      </c>
-      <c r="C9">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="2">
+        <v>44926</v>
+      </c>
+      <c r="C9" s="3">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="2">
+        <v>38352</v>
+      </c>
+      <c r="C10" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Nordeste</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>31/12/2009</t>
-        </is>
-      </c>
-      <c r="C10">
-        <v>4.9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Nordeste</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>31/12/2015</t>
-        </is>
-      </c>
-      <c r="C11">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="2">
+        <v>40178</v>
+      </c>
+      <c r="C11" s="3">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="2">
+        <v>42369</v>
+      </c>
+      <c r="C12" s="3">
         <v>2.8</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Nordeste</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>31/12/2016</t>
-        </is>
-      </c>
-      <c r="C12">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="2">
+        <v>42735</v>
+      </c>
+      <c r="C13" s="3">
         <v>5.9</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Nordeste</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>31/12/2017</t>
-        </is>
-      </c>
-      <c r="C13">
-        <v>5.917771932836549</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Nordeste</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>31/12/2018</t>
-        </is>
-      </c>
-      <c r="C14">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="2">
+        <v>43100</v>
+      </c>
+      <c r="C14" s="3">
+        <v>5.9177719328365486</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="2">
+        <v>43465</v>
+      </c>
+      <c r="C15" s="3">
         <v>5.6</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Nordeste</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>31/12/2019</t>
-        </is>
-      </c>
-      <c r="C15">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="2">
+        <v>43830</v>
+      </c>
+      <c r="C16" s="3">
         <v>5.6</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Sergipe</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>31/12/2004</t>
-        </is>
-      </c>
-      <c r="C16">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="2">
+        <v>44926</v>
+      </c>
+      <c r="C17" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="2">
+        <v>38352</v>
+      </c>
+      <c r="C18" s="3">
         <v>5.9</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Sergipe</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>31/12/2009</t>
-        </is>
-      </c>
-      <c r="C17">
-        <v>4.1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Sergipe</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>31/12/2015</t>
-        </is>
-      </c>
-      <c r="C18">
-        <v>2.3</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Sergipe</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>31/12/2016</t>
-        </is>
-      </c>
-      <c r="C19">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="2">
+        <v>40178</v>
+      </c>
+      <c r="C19" s="3">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="2">
+        <v>42369</v>
+      </c>
+      <c r="C20" s="3">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="2">
+        <v>42735</v>
+      </c>
+      <c r="C21" s="3">
         <v>4.2</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Sergipe</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>31/12/2017</t>
-        </is>
-      </c>
-      <c r="C20">
-        <v>4.65449134612931</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Sergipe</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>31/12/2018</t>
-        </is>
-      </c>
-      <c r="C21">
-        <v>4.4</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Sergipe</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>31/12/2019</t>
-        </is>
-      </c>
-      <c r="C22">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="2">
+        <v>43100</v>
+      </c>
+      <c r="C22" s="3">
+        <v>4.6544913461293103</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="2">
+        <v>43465</v>
+      </c>
+      <c r="C23" s="3">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="2">
+        <v>43830</v>
+      </c>
+      <c r="C24" s="3">
         <v>4.5</v>
       </c>
     </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="2">
+        <v>44926</v>
+      </c>
+      <c r="C25" s="3">
+        <v>3.3</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>